--- a/Unterlagensammlung/Lehrplan/Lehrstoff_Wahlfach Informatik_3.Klasse_NSM - Kopie.xlsx
+++ b/Unterlagensammlung/Lehrplan/Lehrstoff_Wahlfach Informatik_3.Klasse_NSM - Kopie.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Uni\2019WS\Fachpraktikum Informatik\NMS Zirl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Uni\2019WS\Fachpraktikum Informatik\FachPraktikumInformatik2019\Unterlagensammlung\Lehrplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586ECA7E-FA52-47BB-BC4E-4AFA56F2059E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41ED4671-04EF-4A74-8A16-58627F1ADACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kompetenzen" sheetId="2" r:id="rId1"/>
-    <sheet name="Hinweise" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="283">
   <si>
     <t>Kompetenzkatalog zur Digitalen Grundbildung</t>
   </si>
@@ -875,30 +874,6 @@
   </si>
   <si>
     <t>Version 17.4.2018</t>
-  </si>
-  <si>
-    <t>Datentypen (Text, Datum, ganze Zahl, Kommazahl, T/F, …)</t>
-  </si>
-  <si>
-    <t>Einfache Berechnungen</t>
-  </si>
-  <si>
-    <t>Einfache Formeln</t>
-  </si>
-  <si>
-    <t>Sortieren, Text in Spalten, Konkatenation, Suchen und Ersetzen, …</t>
-  </si>
-  <si>
-    <t>Ziel: Excel als einfache Datenbank für Serienbriefe beherrschen</t>
-  </si>
-  <si>
-    <t>Ziel: Excel als einfaches Rechenblatt beherrschen</t>
-  </si>
-  <si>
-    <t>Aufbau einer Tabelle kennen (Zeilen, Spalten, Zellen, Bereiche, …)</t>
-  </si>
-  <si>
-    <t>Diagrammtypen und Einsatzmöglichkeiten</t>
   </si>
 </sst>
 </file>
@@ -2928,59 +2903,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>290</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>